--- a/fermentation_insights/TRY_results/spearman_HP_corn.xlsx
+++ b/fermentation_insights/TRY_results/spearman_HP_corn.xlsx
@@ -625,109 +625,109 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09247611390445562</v>
+        <v>-0.3746153864615459</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1634677258709035</v>
+        <v>-0.318061464245857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7622896091584367</v>
+        <v>0.7899366637466549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4032028608114432</v>
+        <v>0.2421934167736671</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01727037308149233</v>
+        <v>-0.001843687374749499</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3582020088080352</v>
+        <v>-0.2583171612686451</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.003966927867711471</v>
+        <v>0.01748608594434378</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3005473461893848</v>
+        <v>-0.4299151596606386</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1051132204528818</v>
+        <v>0.1909046356185425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004642098568394273</v>
+        <v>0.03303430813723255</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03945270181080724</v>
+        <v>-0.002573194292777171</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.08812067248268993</v>
+        <v>-0.07739426157704631</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02941586166344665</v>
+        <v>0.01674093096372386</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03717653270613083</v>
+        <v>-0.02367763071052284</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.01515538862155449</v>
+        <v>-0.04152688610754443</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07832767331069325</v>
+        <v>0.05642268969075876</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1005934263737055</v>
+        <v>-0.01423599294397178</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.02542195768783075</v>
+        <v>-0.04577672710690843</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4855097500390002</v>
+        <v>0.269187572750291</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01415775263101052</v>
+        <v>-0.004805587222348889</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05396594386377546</v>
+        <v>0.05598665594662379</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.06377247908991636</v>
+        <v>-0.05898426793707175</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1311300925203701</v>
+        <v>-0.06904914019656079</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.04901933207732831</v>
+        <v>-0.03688305953223813</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.05027674510698043</v>
+        <v>-0.07538362953451813</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.05031744926979708</v>
+        <v>-0.03867797871191485</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08897757191028764</v>
+        <v>0.1171447565790263</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4167891231564926</v>
+        <v>0.2832036288145153</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.09242312169248677</v>
+        <v>0.08188640754563019</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1736065184260737</v>
+        <v>-0.1393494533978136</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1288532514130057</v>
+        <v>-0.0835122700490802</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.02256565826263305</v>
+        <v>-0.003730766923067692</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01770794283177133</v>
+        <v>-0.02717953271813087</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3872165888663555</v>
+        <v>0.4239484477937911</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.3575419101676407</v>
+        <v>0.5743010812043248</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09247611390445562</v>
+        <v>-0.3746153864615459</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2839921759687039</v>
+        <v>0.3587948111792447</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2239632318529274</v>
+        <v>-0.3779464077856312</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.545996615986464</v>
+        <v>-0.4545312901251605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02606045624182497</v>
+        <v>0.01661776247104988</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2097005508022032</v>
+        <v>-0.1912601250405002</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4728505634022536</v>
+        <v>0.3924618578474314</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01260955443821775</v>
+        <v>0.07003304813219254</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001939303757215029</v>
+        <v>-0.06839297757191029</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03761967047868191</v>
+        <v>-0.03864869859479438</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.02854465817863271</v>
+        <v>-0.04403355213420854</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06897454789819159</v>
+        <v>0.07137350149400598</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.09012765651062604</v>
+        <v>-0.09120161280645123</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02168437473749895</v>
+        <v>0.01639763359053436</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1218025032100128</v>
+        <v>0.1234695498781995</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.03421482485929944</v>
+        <v>-0.02724490897963592</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.296940707762831</v>
+        <v>-0.2872452449809799</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.03119426877707511</v>
+        <v>-0.01599212796851187</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4713446053784215</v>
+        <v>0.4563042252169009</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04238215352861412</v>
+        <v>0.05473701894807579</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.06288207552830212</v>
+        <v>-0.06301801207204828</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.04665445861783447</v>
+        <v>-0.04156595826383305</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.05149182196728787</v>
+        <v>-0.05614649658598635</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03803333613334453</v>
+        <v>0.03732014928059713</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02982319129276517</v>
+        <v>0.0394623018492074</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0421437845751383</v>
+        <v>0.03494356377425509</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03325021300085201</v>
+        <v>0.00802630410521642</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.5454011256045024</v>
+        <v>-0.4804811539246157</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01221700886803547</v>
+        <v>0.002677450709802839</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.04983696734786939</v>
+        <v>0.05265496261985048</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.005464149856599427</v>
+        <v>-0.001360133440533762</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.01353384613538454</v>
+        <v>0.004717170868683475</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01429656918627674</v>
+        <v>0.02067070668282673</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.2669078516314065</v>
+        <v>-0.3304722018888075</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2590849723398894</v>
+        <v>-0.4019855759423038</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1634677258709035</v>
+        <v>-0.318061464245857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2839921759687039</v>
+        <v>0.3587948111792447</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4340411601646407</v>
+        <v>-0.5074789579158316</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02755067020268081</v>
+        <v>0.02772923091692367</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01438680954723819</v>
+        <v>-0.0103309853239413</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2010738602954412</v>
+        <v>-0.214934107736431</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02092376369505478</v>
+        <v>0.01945428581714327</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6277918231672927</v>
+        <v>0.6438058392233569</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03408839235356941</v>
+        <v>0.01212206448825795</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1910383641534566</v>
+        <v>0.1933208692834771</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02748183792735171</v>
+        <v>0.02049406597626391</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01303166812667251</v>
+        <v>-0.02135749342997372</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2304700418801675</v>
+        <v>0.2322624650498602</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03005944823779295</v>
+        <v>0.02436720146880587</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04999162396649587</v>
+        <v>0.04925510902043608</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01904647618590474</v>
+        <v>-0.01420392881571526</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05362091848367394</v>
+        <v>-0.01177012708050832</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03654062616250465</v>
+        <v>-0.04030825723302893</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3430902043608174</v>
+        <v>0.3640936483745935</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1702664730658923</v>
+        <v>0.1946386665546662</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.07844978579914319</v>
+        <v>-0.0685186420745683</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05055677822711291</v>
+        <v>0.04064829059316237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2746494185976744</v>
+        <v>0.2461942327769311</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01576719906879628</v>
+        <v>0.008906627626510505</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08289201156804628</v>
+        <v>0.07943590174360697</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.01494658778635114</v>
+        <v>-0.02598663194652779</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.00461502646010584</v>
+        <v>0.01074801099204397</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.03121951687806751</v>
+        <v>0.02358671834687339</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.03083215532862131</v>
+        <v>-0.0200124320497282</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.09416303265213061</v>
+        <v>0.1017437989751959</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03393267973071892</v>
+        <v>0.03854693818775275</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.06085464341857368</v>
+        <v>0.05707414829659319</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.004849555398221593</v>
+        <v>0.001275077100308401</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4163671054684219</v>
+        <v>-0.3580800883203533</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.04136781347125389</v>
+        <v>0.005918231672926691</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7622896091584367</v>
+        <v>0.7899366637466549</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2239632318529274</v>
+        <v>-0.3779464077856312</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4340411601646407</v>
+        <v>-0.5074789579158316</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3573308053232213</v>
+        <v>0.01487093948375793</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03325270901083605</v>
+        <v>0.01447205788823155</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1755147180588722</v>
+        <v>-0.07916566066264265</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1703289693158773</v>
+        <v>0.1412545810183241</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3277254389017556</v>
+        <v>-0.5398908955635823</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1007166908667635</v>
+        <v>0.2647693470773883</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02467373069492278</v>
+        <v>0.0373878295513182</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009516518066072264</v>
+        <v>0.05172203088812355</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.06135970143880576</v>
+        <v>-0.01554899019596078</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04269549878199513</v>
+        <v>0.05682723530894124</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01393675974703899</v>
+        <v>0.02485497941991768</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.064874755499022</v>
+        <v>-0.04907232428929716</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05992583970335881</v>
+        <v>0.004822963291853167</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2813286453145812</v>
+        <v>-0.08048211392845571</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06094488377953512</v>
+        <v>-0.07523713294853179</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1333048852195409</v>
+        <v>-0.06717790071160284</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1126666266665067</v>
+        <v>0.02733658934635739</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07787282349129397</v>
+        <v>0.05336286945147781</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.06012312049248197</v>
+        <v>-0.02149515798063192</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.2151114204456818</v>
+        <v>-0.09210296041184164</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.02884245136980548</v>
+        <v>-0.01444306577226309</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.09555955023820095</v>
+        <v>-0.08347751791007164</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.06055541022164088</v>
+        <v>-0.01509769239076956</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1155236940947764</v>
+        <v>0.1023161532646131</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3579511598046392</v>
+        <v>0.01519148476593906</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1051022764091056</v>
+        <v>0.08497454789819159</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02408995235980944</v>
+        <v>-0.003310285241140964</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.003164556658226633</v>
+        <v>-0.01695750783003132</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.06921637286549147</v>
+        <v>-0.05292654770619083</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02537434149736599</v>
+        <v>-0.01790877563510254</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6026364585458341</v>
+        <v>0.2554819819279277</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3960056160224641</v>
+        <v>0.6741476245904984</v>
       </c>
     </row>
     <row r="6">
@@ -1082,112 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4032028608114432</v>
+        <v>0.2421934167736671</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.545996615986464</v>
+        <v>-0.4545312901251605</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02755067020268081</v>
+        <v>0.02772923091692367</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3573308053232213</v>
+        <v>0.01487093948375793</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03579259117036468</v>
+        <v>-0.02039758559034236</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04283335533342134</v>
+        <v>-0.03337165348661394</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05473711494845979</v>
+        <v>-0.04566978267913072</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0505060900243601</v>
+        <v>-0.03609710438841755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005838551354205417</v>
+        <v>0.003278893115572462</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00338065352261409</v>
+        <v>-0.01456537026148105</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0327248988995956</v>
+        <v>-0.002986667946671787</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01416082464329857</v>
+        <v>0.03465258661034644</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.001336133344533378</v>
+        <v>0.01590534362137449</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.001229956919827679</v>
+        <v>-0.001186180744722979</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.06570823083292333</v>
+        <v>-0.06432073728294913</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08039648158592634</v>
+        <v>0.08108451633806535</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005425461701846808</v>
+        <v>0.0006380185520742083</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01305989223956896</v>
+        <v>-0.01689664358657435</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0635064620258481</v>
+        <v>-0.07040332161328645</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0452251089004356</v>
+        <v>0.05712435649742599</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09538857355429421</v>
+        <v>0.0916379345517382</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04700322801291205</v>
+        <v>0.01818679274717099</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.009628454513818056</v>
+        <v>0.02887662750651003</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00856688226752907</v>
+        <v>0.008451681806727228</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.05653395413581654</v>
+        <v>-0.07751013404053617</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.07657777831111325</v>
+        <v>-0.05803194412777651</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.003560078240312961</v>
+        <v>-0.004165456661826647</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9907079308317234</v>
+        <v>0.8986032424129696</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.00307748430993724</v>
+        <v>-0.009193476773907095</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.02265119460477842</v>
+        <v>0.03232246528986116</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02763015852063408</v>
+        <v>0.2907210348841395</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01900702002808011</v>
+        <v>-0.01974046296185185</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.04936042144168577</v>
+        <v>0.04637845751383005</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.005626486505946024</v>
+        <v>0.02742270169080676</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.08967779871119484</v>
+        <v>0.07633038532154128</v>
       </c>
     </row>
     <row r="7">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01727037308149233</v>
+        <v>-0.001843687374749499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02606045624182497</v>
+        <v>0.01661776247104988</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01438680954723819</v>
+        <v>-0.0103309853239413</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03325270901083605</v>
+        <v>0.01447205788823155</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03579259117036468</v>
+        <v>-0.02039758559034236</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3582020088080352</v>
+        <v>-0.2583171612686451</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2097005508022032</v>
+        <v>-0.1912601250405002</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2010738602954412</v>
+        <v>-0.214934107736431</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1755147180588722</v>
+        <v>-0.07916566066264265</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04283335533342134</v>
+        <v>-0.03337165348661394</v>
       </c>
       <c r="G8" t="n">
         <v>-0.0228686354745419</v>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.003966927867711471</v>
+        <v>0.01748608594434378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4728505634022536</v>
+        <v>0.3924618578474314</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02092376369505478</v>
+        <v>0.01945428581714327</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1703289693158773</v>
+        <v>0.1412545810183241</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05473711494845979</v>
+        <v>-0.04566978267913072</v>
       </c>
       <c r="G9" t="n">
         <v>0.08910342841371366</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3005473461893848</v>
+        <v>-0.4299151596606386</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01260955443821775</v>
+        <v>0.07003304813219254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6277918231672927</v>
+        <v>0.6438058392233569</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3277254389017556</v>
+        <v>-0.5398908955635823</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0505060900243601</v>
+        <v>-0.03609710438841755</v>
       </c>
       <c r="G10" t="n">
         <v>-0.01306565226260905</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1051132204528818</v>
+        <v>0.1909046356185425</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.001939303757215029</v>
+        <v>-0.06839297757191029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03408839235356941</v>
+        <v>0.01212206448825795</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1007166908667635</v>
+        <v>0.2647693470773883</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005838551354205417</v>
+        <v>0.003278893115572462</v>
       </c>
       <c r="G11" t="n">
         <v>-0.1083313453253813</v>
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004642098568394273</v>
+        <v>0.03303430813723255</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03761967047868191</v>
+        <v>-0.03864869859479438</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1910383641534566</v>
+        <v>0.1933208692834771</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02467373069492278</v>
+        <v>0.0373878295513182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00338065352261409</v>
+        <v>-0.01456537026148105</v>
       </c>
       <c r="G12" t="n">
         <v>0.04719705278821115</v>
@@ -1887,19 +1887,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03945270181080724</v>
+        <v>-0.002573194292777171</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02854465817863271</v>
+        <v>-0.04403355213420854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02748183792735171</v>
+        <v>0.02049406597626391</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009516518066072264</v>
+        <v>0.05172203088812355</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0327248988995956</v>
+        <v>-0.002986667946671787</v>
       </c>
       <c r="G13" t="n">
         <v>0.01714826059304237</v>
@@ -2002,19 +2002,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08812067248268993</v>
+        <v>-0.07739426157704631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06897454789819159</v>
+        <v>0.07137350149400598</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01303166812667251</v>
+        <v>-0.02135749342997372</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06135970143880576</v>
+        <v>-0.01554899019596078</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01416082464329857</v>
+        <v>0.03465258661034644</v>
       </c>
       <c r="G14" t="n">
         <v>-0.009399205596822387</v>
@@ -2117,19 +2117,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02941586166344665</v>
+        <v>0.01674093096372386</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09012765651062604</v>
+        <v>-0.09120161280645123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2304700418801675</v>
+        <v>0.2322624650498602</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04269549878199513</v>
+        <v>0.05682723530894124</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.001336133344533378</v>
+        <v>0.01590534362137449</v>
       </c>
       <c r="G15" t="n">
         <v>0.009240900963603855</v>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03717653270613083</v>
+        <v>-0.02367763071052284</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02168437473749895</v>
+        <v>0.01639763359053436</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03005944823779295</v>
+        <v>0.02436720146880587</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01393675974703899</v>
+        <v>0.02485497941991768</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.001229956919827679</v>
+        <v>-0.001186180744722979</v>
       </c>
       <c r="G16" t="n">
         <v>-0.06015153660614642</v>
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01515538862155449</v>
+        <v>-0.04152688610754443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1218025032100128</v>
+        <v>0.1234695498781995</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04999162396649587</v>
+        <v>0.04925510902043608</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.064874755499022</v>
+        <v>-0.04907232428929716</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06570823083292333</v>
+        <v>-0.06432073728294913</v>
       </c>
       <c r="G17" t="n">
         <v>0.02646932187728751</v>
@@ -2462,19 +2462,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07832767331069325</v>
+        <v>0.05642268969075876</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03421482485929944</v>
+        <v>-0.02724490897963592</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01904647618590474</v>
+        <v>-0.01420392881571526</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05992583970335881</v>
+        <v>0.004822963291853167</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08039648158592634</v>
+        <v>0.08108451633806535</v>
       </c>
       <c r="G18" t="n">
         <v>-0.0740436561746247</v>
@@ -2577,19 +2577,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1005934263737055</v>
+        <v>-0.01423599294397178</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.296940707762831</v>
+        <v>-0.2872452449809799</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05362091848367394</v>
+        <v>-0.01177012708050832</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2813286453145812</v>
+        <v>-0.08048211392845571</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005425461701846808</v>
+        <v>0.0006380185520742083</v>
       </c>
       <c r="G19" t="n">
         <v>0.01246353785415142</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02542195768783075</v>
+        <v>-0.04577672710690843</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.03119426877707511</v>
+        <v>-0.01599212796851187</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03654062616250465</v>
+        <v>-0.04030825723302893</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06094488377953512</v>
+        <v>-0.07523713294853179</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01305989223956896</v>
+        <v>-0.01689664358657435</v>
       </c>
       <c r="G20" t="n">
         <v>-0.0212874131496526</v>
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4855097500390002</v>
+        <v>0.269187572750291</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4713446053784215</v>
+        <v>0.4563042252169009</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3430902043608174</v>
+        <v>0.3640936483745935</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1333048852195409</v>
+        <v>-0.06717790071160284</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0635064620258481</v>
+        <v>-0.07040332161328645</v>
       </c>
       <c r="G21" t="n">
         <v>-0.03526689306757227</v>
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01415775263101052</v>
+        <v>-0.004805587222348889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04238215352861412</v>
+        <v>0.05473701894807579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1702664730658923</v>
+        <v>0.1946386665546662</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1126666266665067</v>
+        <v>0.02733658934635739</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0452251089004356</v>
+        <v>0.05712435649742599</v>
       </c>
       <c r="G22" t="n">
         <v>0.02758964635858543</v>
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05396594386377546</v>
+        <v>0.05598665594662379</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06288207552830212</v>
+        <v>-0.06301801207204828</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.07844978579914319</v>
+        <v>-0.0685186420745683</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07787282349129397</v>
+        <v>0.05336286945147781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09538857355429421</v>
+        <v>0.0916379345517382</v>
       </c>
       <c r="G23" t="n">
         <v>0.06868702674810699</v>
@@ -3152,19 +3152,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.06377247908991636</v>
+        <v>-0.05898426793707175</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04665445861783447</v>
+        <v>-0.04156595826383305</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05055677822711291</v>
+        <v>0.04064829059316237</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.06012312049248197</v>
+        <v>-0.02149515798063192</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04700322801291205</v>
+        <v>0.01818679274717099</v>
       </c>
       <c r="G24" t="n">
         <v>0.02887518750075</v>
@@ -3267,19 +3267,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1311300925203701</v>
+        <v>-0.06904914019656079</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.05149182196728787</v>
+        <v>-0.05614649658598635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2746494185976744</v>
+        <v>0.2461942327769311</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.2151114204456818</v>
+        <v>-0.09210296041184164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.009628454513818056</v>
+        <v>0.02887662750651003</v>
       </c>
       <c r="G25" t="n">
         <v>0.01226644906579626</v>
@@ -3382,19 +3382,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.04901933207732831</v>
+        <v>-0.03688305953223813</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03803333613334453</v>
+        <v>0.03732014928059713</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01576719906879628</v>
+        <v>0.008906627626510505</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.02884245136980548</v>
+        <v>-0.01444306577226309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00856688226752907</v>
+        <v>0.008451681806727228</v>
       </c>
       <c r="G26" t="n">
         <v>0.01696845187380749</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.05027674510698043</v>
+        <v>-0.07538362953451813</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02982319129276517</v>
+        <v>0.0394623018492074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08289201156804628</v>
+        <v>0.07943590174360697</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.09555955023820095</v>
+        <v>-0.08347751791007164</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.05653395413581654</v>
+        <v>-0.07751013404053617</v>
       </c>
       <c r="G27" t="n">
         <v>-0.004993555974223897</v>
@@ -3612,19 +3612,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.05031744926979708</v>
+        <v>-0.03867797871191485</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0421437845751383</v>
+        <v>0.03494356377425509</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01494658778635114</v>
+        <v>-0.02598663194652779</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.06055541022164088</v>
+        <v>-0.01509769239076956</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07657777831111325</v>
+        <v>-0.05803194412777651</v>
       </c>
       <c r="G28" t="n">
         <v>0.03612811251245005</v>
@@ -3727,19 +3727,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08897757191028764</v>
+        <v>0.1171447565790263</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03325021300085201</v>
+        <v>0.00802630410521642</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00461502646010584</v>
+        <v>0.01074801099204397</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1155236940947764</v>
+        <v>0.1023161532646131</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003560078240312961</v>
+        <v>-0.004165456661826647</v>
       </c>
       <c r="G29" t="n">
         <v>0.05674179496717987</v>
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4167891231564926</v>
+        <v>0.2832036288145153</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5454011256045024</v>
+        <v>-0.4804811539246157</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03121951687806751</v>
+        <v>0.02358671834687339</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3579511598046392</v>
+        <v>0.01519148476593906</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9907079308317234</v>
+        <v>0.8986032424129696</v>
       </c>
       <c r="G30" t="n">
         <v>-0.03504887619550478</v>
@@ -3957,19 +3957,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09242312169248677</v>
+        <v>0.08188640754563019</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01221700886803547</v>
+        <v>0.002677450709802839</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03083215532862131</v>
+        <v>-0.0200124320497282</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1051022764091056</v>
+        <v>0.08497454789819159</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00307748430993724</v>
+        <v>-0.009193476773907095</v>
       </c>
       <c r="G31" t="n">
         <v>0.04266468265873063</v>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1736065184260737</v>
+        <v>-0.1393494533978136</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04983696734786939</v>
+        <v>0.05265496261985048</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09416303265213061</v>
+        <v>0.1017437989751959</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02408995235980944</v>
+        <v>-0.003310285241140964</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02265119460477842</v>
+        <v>0.03232246528986116</v>
       </c>
       <c r="G32" t="n">
         <v>0.02212693650774603</v>
@@ -4187,19 +4187,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1288532514130057</v>
+        <v>-0.0835122700490802</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.005464149856599427</v>
+        <v>-0.001360133440533762</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03393267973071892</v>
+        <v>0.03854693818775275</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003164556658226633</v>
+        <v>-0.01695750783003132</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02763015852063408</v>
+        <v>0.2907210348841395</v>
       </c>
       <c r="G33" t="n">
         <v>-0.001653510614042456</v>
@@ -4302,19 +4302,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02256565826263305</v>
+        <v>-0.003730766923067692</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01353384613538454</v>
+        <v>0.004717170868683475</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06085464341857368</v>
+        <v>0.05707414829659319</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.06921637286549147</v>
+        <v>-0.05292654770619083</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01900702002808011</v>
+        <v>-0.01974046296185185</v>
       </c>
       <c r="G34" t="n">
         <v>0.004860499441997768</v>
@@ -4417,19 +4417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01770794283177133</v>
+        <v>-0.02717953271813087</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01429656918627674</v>
+        <v>0.02067070668282673</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.004849555398221593</v>
+        <v>0.001275077100308401</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02537434149736599</v>
+        <v>-0.01790877563510254</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04936042144168577</v>
+        <v>0.04637845751383005</v>
       </c>
       <c r="G35" t="n">
         <v>0.01461692246768987</v>
@@ -4532,19 +4532,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3872165888663555</v>
+        <v>0.4239484477937911</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2669078516314065</v>
+        <v>-0.3304722018888075</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4163671054684219</v>
+        <v>-0.3580800883203533</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6026364585458341</v>
+        <v>0.2554819819279277</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.005626486505946024</v>
+        <v>0.02742270169080676</v>
       </c>
       <c r="G36" t="n">
         <v>0.04644709778839115</v>
@@ -4647,19 +4647,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3575419101676407</v>
+        <v>0.5743010812043248</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2590849723398894</v>
+        <v>-0.4019855759423038</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04136781347125389</v>
+        <v>0.005918231672926691</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3960056160224641</v>
+        <v>0.6741476245904984</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08967779871119484</v>
+        <v>0.07633038532154128</v>
       </c>
       <c r="G37" t="n">
         <v>0.02651617006468026</v>
